--- a/Documents/Projektskizze/Risiken.xlsx
+++ b/Documents/Projektskizze/Risiken.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Nr.</t>
   </si>
@@ -33,12 +33,6 @@
     <t>AW</t>
   </si>
   <si>
-    <t>EW: Eintretens Wahrscheinlich</t>
-  </si>
-  <si>
-    <t>AW: Auswirkung</t>
-  </si>
-  <si>
     <t>Massnahmen</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>Motivation</t>
   </si>
   <si>
-    <t>Probleme mit der Entwicklungsumgebung</t>
-  </si>
-  <si>
     <t>Personaldefizit</t>
   </si>
   <si>
@@ -60,9 +51,6 @@
     <t>ZHAW Netzwerk</t>
   </si>
   <si>
-    <t>Know-How Defizit</t>
-  </si>
-  <si>
     <t>Sound &amp; Grafik</t>
   </si>
   <si>
@@ -84,9 +72,6 @@
     <t>ZHAW Server sind aufgrund eines Wartungsfensters oder Ausfalls nicht erreichbar</t>
   </si>
   <si>
-    <t>Das Know-How im Team oder bei einzelnen Mitgliedern führt zu Verzögerungen</t>
-  </si>
-  <si>
     <t>Zeit für die Implementation wird knapp, Mittel für die Realisierung reichen nicht aus</t>
   </si>
   <si>
@@ -102,30 +87,18 @@
     <t>möglich</t>
   </si>
   <si>
-    <t>unwarscheinlich</t>
-  </si>
-  <si>
     <t>Realistischer Zeitplan erstellen. Verzögerungen frühzeitig erkennen und aufholen</t>
   </si>
   <si>
     <t>Gemeinsames einrichten der Entwicklungsumgebungen und gegenseitige Unterstützung bei Problemen</t>
   </si>
   <si>
-    <t>Velohelm aufsetzen, Rechtsvortritt beachten und jeden Tag ein Glas O'saft trinken</t>
-  </si>
-  <si>
-    <t>Material sorgfälltig behandeln und bei einem Ausfall zeitig für Ersatz sorgen</t>
-  </si>
-  <si>
     <t>Git benutzen</t>
   </si>
   <si>
     <t>Sound weglassen und/oder Grafik vereinfachen</t>
   </si>
   <si>
-    <t>sehr warscheinlich</t>
-  </si>
-  <si>
     <t>wahrscheinlich</t>
   </si>
   <si>
@@ -135,36 +108,7 @@
     <t>So viel Wissenstransfer  betreiben wie möglich</t>
   </si>
   <si>
-    <t>sehr wahrscheinlich</t>
-  </si>
-  <si>
-    <t>unwahrscheinlich</t>
-  </si>
-  <si>
     <t>Niedrig</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Eintretenswahrscheinlichkeit </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>→</t>
-    </r>
   </si>
   <si>
     <r>
@@ -192,12 +136,54 @@
   <si>
     <t>3, 4, 5</t>
   </si>
+  <si>
+    <t>EW: Eintretens Wahrscheinlich   AW: Auswirkung</t>
+  </si>
+  <si>
+    <t>Material sorgfältig behandeln und bei einem Ausfall zeitig für Ersatz sorgen</t>
+  </si>
+  <si>
+    <t>Velo Helm aufsetzen, Rechtsvortritt beachten und jeden Tag ein Glas O'saft trinken</t>
+  </si>
+  <si>
+    <t>Knowhow Defizit</t>
+  </si>
+  <si>
+    <t>Das Knowhow im Team oder bei einzelnen Mitgliedern führt zu Verzögerungen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Eintretens Wahrscheinlichkeit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+  </si>
+  <si>
+    <t>unwahr- scheinlich</t>
+  </si>
+  <si>
+    <t>sehr wahr- scheinlich</t>
+  </si>
+  <si>
+    <t>Probleme mit der Entwicklungs- umgebung</t>
+  </si>
+  <si>
+    <t>wahr-scheinlich</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +215,13 @@
     </font>
     <font>
       <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -298,43 +291,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -356,6 +357,9 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -376,15 +380,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:G12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:G12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B4:G12"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Nr." dataDxfId="7"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="6"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="4" name="EW" dataDxfId="4"/>
-    <tableColumn id="5" name="AW" dataDxfId="3"/>
-    <tableColumn id="6" name="Massnahmen" dataDxfId="2"/>
+    <tableColumn id="1" name="Nr." dataDxfId="5"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="4"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="4" name="EW" dataDxfId="2"/>
+    <tableColumn id="5" name="AW" dataDxfId="1"/>
+    <tableColumn id="6" name="Massnahmen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,20 +683,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="8" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="12" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -712,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -720,19 +725,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -740,19 +745,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
@@ -760,19 +765,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -780,19 +785,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -800,19 +805,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -820,19 +825,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -840,19 +845,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -860,98 +865,93 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="8:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="13"/>
+      <c r="I17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+      <c r="J17" s="7"/>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="8:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="13"/>
+      <c r="I18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="8">
+        <v>8</v>
+      </c>
+      <c r="K18" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="L18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="13"/>
+      <c r="I19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="8:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="14"/>
-      <c r="I17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="9">
-        <v>2</v>
-      </c>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="8:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="14"/>
-      <c r="I18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="10">
-        <v>8</v>
-      </c>
-      <c r="K18" s="8">
-        <v>6</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="8:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="14"/>
-      <c r="I19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="8">
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="J20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>24</v>
+    <row r="20" spans="8:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="J21" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="J21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
